--- a/data/trans_dic/P16B04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,94%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>33,94; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>60,43; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>51,96; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>64,23; 95,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>65,8; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,21%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>48,72; 89,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>64,26; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>62,75; 96,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>70,29; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>65,57; 91,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>73,58; 96,82</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>70,2; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>60,42; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>71,55; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>86,23; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>60,31; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>40,75; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>72,09; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>78,9; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>55,26; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>27,18; 91,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>41,48; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>62,23; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>74,26; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>50,19; 95,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>64,75; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>73,84; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>70,56; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>79,08; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,24%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>87,85; 98,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>74,65; 91,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>86,59; 98,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>85,91; 98,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>88,43; 99,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>87,13; 98,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>89,62; 98,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>84,42; 94,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>89,94; 98,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,84; 100,0</t>
+          <t>51,46; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,95; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,56; 100,0</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>81,26; 100</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>76,75; 100</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>73,1; 100,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>91,36; 100</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>88,17; 100</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>79,08; 100,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>95,45; 100</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>92,68; 100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50,81; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79,25; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56,54; 100,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>82,92; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95,52%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85,2%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95,18%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>95,22%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>95,3%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>95,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95,35%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>90,42%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>87,85; 98,61</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>74,65; 91,91</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>86,59; 98,47</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>85,91; 98,61</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>88,43; 99,01</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>87,13; 98,88</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>89,62; 98,2</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>84,42; 94,15</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>89,94; 98,05</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,94; 100,0</t>
+          <t>33,22; 90,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,12 +706,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,43; 100,0</t>
+          <t>67,08; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,96; 100,0</t>
+          <t>61,06; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +721,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,23; 95,9</t>
+          <t>63,89; 95,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,8; 100,0</t>
+          <t>63,92; 100,0</t>
         </is>
       </c>
     </row>
@@ -800,12 +801,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,72; 89,65</t>
+          <t>47,74; 89,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,26; 100,0</t>
+          <t>65,3; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,12 +816,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,75; 96,58</t>
+          <t>60,24; 96,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,29; 100,0</t>
+          <t>66,34; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +831,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,57; 91,3</t>
+          <t>65,62; 91,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,58; 96,82</t>
+          <t>74,02; 96,87</t>
         </is>
       </c>
     </row>
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,2; 100,0</t>
+          <t>70,53; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,42; 100,0</t>
+          <t>62,84; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,55; 100,0</t>
+          <t>68,81; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,23; 100,0</t>
+          <t>87,0; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1020,7 +1021,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,31; 100,0</t>
+          <t>60,01; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,75; 100,0</t>
+          <t>54,83; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,09; 100,0</t>
+          <t>71,7; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,9; 100,0</t>
+          <t>78,82; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,17 +1126,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,26; 100,0</t>
+          <t>59,67; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,18; 91,69</t>
+          <t>20,55; 91,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,48; 100,0</t>
+          <t>52,23; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,23; 100,0</t>
+          <t>53,21; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,26; 100,0</t>
+          <t>74,51; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,19; 95,19</t>
+          <t>52,81; 95,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,75; 100,0</t>
+          <t>66,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,46; 100,0</t>
+          <t>51,68; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,1; 100,0</t>
+          <t>77,23; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,81; 100,0</t>
+          <t>50,41; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,54; 100,0</t>
+          <t>70,67; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,61</t>
+          <t>87,98; 98,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,65; 91,91</t>
+          <t>75,8; 91,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,47</t>
+          <t>86,99; 98,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,91; 98,61</t>
+          <t>86,45; 98,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>88,43; 99,01</t>
+          <t>88,44; 98,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>87,13; 98,88</t>
+          <t>85,23; 98,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>89,62; 98,2</t>
+          <t>90,43; 98,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,42; 94,15</t>
+          <t>84,91; 94,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,94; 98,05</t>
+          <t>89,56; 98,0</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas antibióticas fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8916</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6135</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7465</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13951</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8893</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20086</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11726</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7066; 8916</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3009; 8197</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1575; 2833</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6066; 7465</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10013; 14927</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5973; 9783</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14655; 16381</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15325; 22998</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8064; 12616</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12696</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15580</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16267</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23116</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13137</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22975</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28717</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5149; 6708</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8321; 15629</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11552; 17691</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14454; 16267</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16204; 25918</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9383; 14143</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21154; 22975</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29088; 40419</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23563; 30837</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4923</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14832</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12860</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18386</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14323</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17783</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33218</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3418; 4923</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11080; 15711</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13031; 14911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8805; 14011</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16449; 18386</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12517; 14323</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13029; 18934</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29663; 34097</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27313; 29234</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8326</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10918</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11974</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9779</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14430</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20697</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16127</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6598; 8326</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7204; 12003</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10096; 11974</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3919; 7147</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7947; 9779</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2648; 4153</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11093; 15473</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17169; 21782</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14219; 16127</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10916</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8859</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8780</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8490</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15736</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20153</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17349</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24515</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7584; 12709</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2731; 12193</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5199; 9955</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7506; 9237</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6728; 8490</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9342; 17555</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16352; 21946</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11502; 20735</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18429; 27510</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8154</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17581</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9102</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9901</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9552</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8743</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18056</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27133</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17845</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4646; 8990</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>15031; 17581</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7213; 9102</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8348; 9901</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7762; 9552</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6711; 8743</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14590; 18892</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24788; 27133</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15734; 17845</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8091</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13285</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10179</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>17471</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23152</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11830</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6412; 8091</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7820; 9867</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>711; 1651</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5424; 10761</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11358; 13285</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8067; 10179</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13324; 18852</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21057; 23152</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9810; 11830</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>56035</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>80888</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>71216</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>96559</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>127249</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>139996</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>51613; 57852</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>71967; 87020</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>59252; 67077</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>64658; 73732</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>89603; 99474</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>67230; 77955</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>120679; 130909</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>166649; 184605</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>131643; 144053</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>